--- a/Coffrets.xlsx
+++ b/Coffrets.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Nom du coffret</t>
   </si>
@@ -324,6 +324,118 @@
     <t>Crème visage peaux sensibles - 60ml
 Reconnexion 60min
 Découverte 30min</t>
+  </si>
+  <si>
+    <t>Références</t>
+  </si>
+  <si>
+    <t>LPS00004
+FLO00088
+SETS0005</t>
+  </si>
+  <si>
+    <t>FLO003
+FLO015
+MSM0015</t>
+  </si>
+  <si>
+    <t>JAD0013
+LPS00038</t>
+  </si>
+  <si>
+    <t>TCHIP02
+FLO00087
+JAD0011
+JAD0012
+SETS0002</t>
+  </si>
+  <si>
+    <t>LPS00023
+LPS00032
+FLO00051
+MSM0022
+LPS00037
+FLO023</t>
+  </si>
+  <si>
+    <t>LPS00022
+MSM0030
+JAD0013
+MAO0057</t>
+  </si>
+  <si>
+    <t>MSM0030
+MSM0021</t>
+  </si>
+  <si>
+    <t>MABC003</t>
+  </si>
+  <si>
+    <t>LPS00021
+LPS00016
+LPS00026
+LPS00020</t>
+  </si>
+  <si>
+    <t>MSM0016
+JAD0012
+MAO0020
+TCHIP01</t>
+  </si>
+  <si>
+    <t>MAOEP01
+MAOEP02
+MAOEP03
+MAOEP04
+MAOEP05
+MAOEP11</t>
+  </si>
+  <si>
+    <t>MAOEP06
+MAOEP07
+MAOEP08
+MAOEP09
+MAOEP10
+MAOEP11</t>
+  </si>
+  <si>
+    <t>JAD0013
+JAD0015
+MSM0021
+FLO023</t>
+  </si>
+  <si>
+    <t>MSM0018
+MSM0037
+FLO00044
+FLO0071</t>
+  </si>
+  <si>
+    <t>MSM0047
+MSM0016</t>
+  </si>
+  <si>
+    <t>LPS00024
+LPS00051
+TCHIP01
+MAO0100</t>
+  </si>
+  <si>
+    <t>FLO00103
+FLO00104
+FLO00106</t>
+  </si>
+  <si>
+    <t>FLO023
+MSM0022
+LPS00023
+FLO00051
+MAO0057</t>
+  </si>
+  <si>
+    <t>LPS00000
+REC00011
+REC00004</t>
   </si>
 </sst>
 </file>
@@ -336,7 +448,7 @@
     <numFmt numFmtId="166" formatCode="##"/>
     <numFmt numFmtId="167" formatCode="####0.00\ \€"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -373,6 +485,10 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -403,12 +519,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,11 +567,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Monétaire 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,11 +860,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil13"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -746,9 +873,10 @@
     <col min="2" max="3" width="2.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="56" style="12" customWidth="1"/>
     <col min="5" max="5" width="11" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,8 +892,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -781,8 +912,11 @@
       <c r="E2" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -798,8 +932,11 @@
       <c r="E3" s="9">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F3" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -815,8 +952,11 @@
       <c r="E4" s="9">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="F4" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -832,8 +972,11 @@
       <c r="E5" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F5" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -849,8 +992,11 @@
       <c r="E6" s="11">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F6" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -866,8 +1012,11 @@
       <c r="E7" s="11">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -883,8 +1032,11 @@
       <c r="E8" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -900,8 +1052,11 @@
       <c r="E9" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F9" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -917,8 +1072,11 @@
       <c r="E10" s="11">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F10" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -934,8 +1092,11 @@
       <c r="E11" s="11">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -951,8 +1112,11 @@
       <c r="E12" s="11">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -968,8 +1132,11 @@
       <c r="E13" s="11">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F13" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -985,8 +1152,11 @@
       <c r="E14" s="11">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F14" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -1002,8 +1172,11 @@
       <c r="E15" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F15" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -1019,8 +1192,11 @@
       <c r="E16" s="11">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F16" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1036,8 +1212,11 @@
       <c r="E17" s="11">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F17" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1053,8 +1232,11 @@
       <c r="E18" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="F18" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -1070,8 +1252,11 @@
       <c r="E19" s="11">
         <v>34.130000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F19" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1086,6 +1271,9 @@
       </c>
       <c r="E20" s="11">
         <v>162</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
